--- a/report/Workbook2.xlsx
+++ b/report/Workbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="820" yWindow="0" windowWidth="25600" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="2580" yWindow="600" windowWidth="23760" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1062,13 +1062,15 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.25600000000000001</v>
+      </c>
       <c r="C6" s="1">
         <v>7.5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16">
@@ -1219,11 +1221,11 @@
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D16)</f>
-        <v>49.895000000000003</v>
+        <v>51.814999999999998</v>
       </c>
       <c r="E18">
         <f>D18/C18</f>
-        <v>0.49895</v>
+        <v>0.51815</v>
       </c>
     </row>
   </sheetData>
